--- a/biology/Botanique/Barclaya_longifolia/Barclaya_longifolia.xlsx
+++ b/biology/Botanique/Barclaya_longifolia/Barclaya_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barclaya longifolia est une espèce de la famille des Nymphaeaceae. Il s'agit d'une espèce de plante aquatique vivace originaire de la région de l'Indochine jusqu'au nord-ouest de la Malaisie péninsulaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barclaya longifolia est une espèce de la famille des Nymphaeaceae. Il s'agit d'une espèce de plante aquatique vivace originaire de la région de l'Indochine jusqu'au nord-ouest de la Malaisie péninsulaire.
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques végétatives
-Barclaya longifolia est une plante aquatique submergée, vivace[2] avec des rhizomes ovoïdes, tubéreux, stolonifères, de 2 à 3 cm de long et 0,5 à 1,5 cm de large[3]. Le linéaire -feuilles lancéolées de 12 à 30 cm de long et 2 à 5 cm de large avec un apex obtus et une base cordée avec une marge ondulée[4] La surface abaxiale des feuilles présente une coloration rouge[2]. Les pétioles sont au nombre de 6 -25 cm de long[5].
-Caractéristiques génératives
-Les fleurs immergées et cléistogames, ou émergées et chasmogames[6] de 4 à 6 cm de large sont attachées à des pédoncules de 5 à 30 cm de long avec de nombreux trichomes[3] Les sépales mesurent 1,5 à 2,5 cm de long et 0,5 à 0,6 cm de large[7]. Le gynécée syncarpe inférieur se compose de 8 à 14 carpelles[8]. Le fruit globuleux, vert rougeâtre à blanchâtre, de 1 à 2 cm de large, porte des graines globuleuses de 1 mm de long et 0,5 mm de large, échinées, rouge brunâtre[3] sans arille[5],[8],[9].
+          <t>Caractéristiques végétatives</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barclaya longifolia est une plante aquatique submergée, vivace avec des rhizomes ovoïdes, tubéreux, stolonifères, de 2 à 3 cm de long et 0,5 à 1,5 cm de large. Le linéaire -feuilles lancéolées de 12 à 30 cm de long et 2 à 5 cm de large avec un apex obtus et une base cordée avec une marge ondulée La surface abaxiale des feuilles présente une coloration rouge. Les pétioles sont au nombre de 6 -25 cm de long.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cytologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le nombre de chromosomes diploïdes est de 2n = 26[3]. Le génome chloroplastique mesure 158 359 pb[10].
+          <t>Caractéristiques génératives</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs immergées et cléistogames, ou émergées et chasmogames de 4 à 6 cm de large sont attachées à des pédoncules de 5 à 30 cm de long avec de nombreux trichomes Les sépales mesurent 1,5 à 2,5 cm de long et 0,5 à 0,6 cm de large. Le gynécée syncarpe inférieur se compose de 8 à 14 carpelles. Le fruit globuleux, vert rougeâtre à blanchâtre, de 1 à 2 cm de large, porte des graines globuleuses de 1 mm de long et 0,5 mm de large, échinées, rouge brunâtre sans arille.
 </t>
         </is>
       </c>
@@ -573,15 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reproduction végétative
-Les rhizomes sont stolonifères[3].
-Reproduction générative
-Barclaya longifolia peut produire des fleurs cléistogames autogames, submergées[7],[6],[3],[4], ainsi comme fleurs chasmogames émergentes[6].
+          <t>Cytologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nombre de chromosomes diploïdes est de 2n = 26. Le génome chloroplastique mesure 158 359 pb.
 </t>
         </is>
       </c>
@@ -607,15 +627,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
+          <t>Reproduction</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication
-Il a été décrit pour la première fois par Nathaniel Wallich en 1827[1] C'est l'espèce type de son genre[7],[3].
-Spécimen type
-Le spécimen type a été collecté par Wallich à Rangoon, Myanmar en août 1826[3],[7].
+          <t>Reproduction végétative</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rhizomes sont stolonifères.
 </t>
         </is>
       </c>
@@ -641,12 +664,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Reproduction</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'épithète spécifique « longifolia », du latin « longus » signifiant « long » et « folius » signifiant « feuille », signifie à longues feuilles[11],[12].
+          <t>Reproduction générative</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barclaya longifolia peut produire des fleurs cléistogames autogames, submergées ainsi comme fleurs chasmogames émergentes.
 </t>
         </is>
       </c>
@@ -672,12 +701,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Conservation</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'état de conservation UICN est de moindre préoccupation (LC)[13]. Il pourrait être en danger dans la péninsule malaisienne[3]. En Inde, c'est une espèce rare[14].
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit pour la première fois par Nathaniel Wallich en 1827 C'est l'espèce type de son genre,.
 </t>
         </is>
       </c>
@@ -703,13 +738,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ecologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Il se produit dans les rivières à débit rapide, les ruisseaux et les mares stagnantes. La perturbation du substrat par le sanglier peut être bénéfique pour l'implantation des plants de Barclaya longifolia dans leur habitat naturel[3],[13].
+          <t>Spécimen type</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type a été collecté par Wallich à Rangoon, Myanmar en août 1826,.
 </t>
         </is>
       </c>
@@ -735,12 +775,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante d'aquarium populaire[5],[4],[13]. Elle peut être facilement cultivée dans un mélange de sols au pH neutre, limoneux et minéraux[3] à des températures de 26 à 29 °C.[15]
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique « longifolia », du latin « longus » signifiant « long » et « folius » signifiant « feuille », signifie à longues feuilles,.
 </t>
         </is>
       </c>
@@ -766,12 +808,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[16] : Birmanie, Laos, Thaïlande, Viêt Nam.
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'état de conservation UICN est de moindre préoccupation (LC). Il pourrait être en danger dans la péninsule malaisienne. En Inde, c'est une espèce rare.
 </t>
         </is>
       </c>
@@ -797,14 +841,119 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Ecologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se produit dans les rivières à débit rapide, les ruisseaux et les mares stagnantes. La perturbation du substrat par le sanglier peut être bénéfique pour l'implantation des plants de Barclaya longifolia dans leur habitat naturel,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Barclaya_longifolia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barclaya_longifolia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante d'aquarium populaire. Elle peut être facilement cultivée dans un mélange de sols au pH neutre, limoneux et minéraux à des températures de 26 à 29 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Barclaya_longifolia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barclaya_longifolia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Birmanie, Laos, Thaïlande, Viêt Nam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Barclaya_longifolia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barclaya_longifolia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Barclaya longifolia Wall.[17].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : barclaya à longues feuilles[18].
-Barclaya longifolia a pour synonymes[17] :
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Barclaya longifolia Wall..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : barclaya à longues feuilles.
+Barclaya longifolia a pour synonymes :
 Barclaya oblonga Wall.
 Barclaya pierreana Thorel
 Barclaya pierreana Thorel ex Gagnep.
